--- a/static/excel/prices.xlsx
+++ b/static/excel/prices.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t xml:space="preserve">followerCount</t>
   </si>
@@ -42,7 +42,7 @@
     <t xml:space="preserve">3000-5000</t>
   </si>
   <si>
-    <t xml:space="preserve">'5000-99999</t>
+    <t xml:space="preserve">5000-</t>
   </si>
   <si>
     <t xml:space="preserve">LIMIT</t>
@@ -72,16 +72,13 @@
     <t xml:space="preserve">videoShares</t>
   </si>
   <si>
-    <t xml:space="preserve">internetusage1GB</t>
+    <t xml:space="preserve">internetUsage1GB</t>
   </si>
   <si>
     <t xml:space="preserve">advertImageShare</t>
   </si>
   <si>
     <t xml:space="preserve">advertVideoShare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">followers</t>
   </si>
 </sst>
 </file>
@@ -204,74 +201,74 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:H981"/>
+  <dimension ref="A1:H982"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="8.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>250</v>
-      </c>
-    </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>0.001</v>
@@ -292,64 +289,64 @@
         <v>0.002</v>
       </c>
       <c r="H3" s="4" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H4" s="4" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.0015</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C5" s="3" t="n">
         <v>0.00175</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0.00225</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>0.0015</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" s="3" t="n">
+        <v>0.00225</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>0.0025</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="G5" s="3" t="n">
         <v>0.003</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>0.004</v>
+      <c r="H5" s="4" t="n">
+        <v>1000</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+      <c r="A6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>0.001</v>
@@ -375,7 +372,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0.001</v>
@@ -390,7 +387,7 @@
         <v>0.0025</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>0.004</v>
@@ -400,112 +397,112 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B9" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C9" s="3" t="n">
         <v>0.012</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.014</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E9" s="3" t="n">
         <v>0.016</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F9" s="3" t="n">
         <v>0.018</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G9" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H9" s="4" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B10" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C10" s="3" t="n">
         <v>0.06</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.07</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E10" s="3" t="n">
         <v>0.08</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F10" s="3" t="n">
         <v>0.09</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G10" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H10" s="4" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B11" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C11" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D11" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E11" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F11" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G11" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>0.05</v>
@@ -531,7 +528,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>0.05</v>
@@ -552,32 +549,34 @@
         <v>0.01</v>
       </c>
       <c r="H13" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="4" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
@@ -10248,6 +10247,16 @@
       <c r="F981" s="2"/>
       <c r="G981" s="2"/>
       <c r="H981" s="2"/>
+    </row>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A982" s="2"/>
+      <c r="B982" s="2"/>
+      <c r="C982" s="2"/>
+      <c r="D982" s="2"/>
+      <c r="E982" s="2"/>
+      <c r="F982" s="2"/>
+      <c r="G982" s="2"/>
+      <c r="H982" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10271,7 +10280,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.7"/>
   </cols>
@@ -11278,7 +11287,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.7"/>
   </cols>
